--- a/biology/Botanique/Pometia_pinnata/Pometia_pinnata.xlsx
+++ b/biology/Botanique/Pometia_pinnata/Pometia_pinnata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pometia pinnata est un arbre de la famille des sapindacées, répandue en Océanie et Asie du Sud-Est.
-On le nomme usuellement en français pometier, en Polynésie française kava[1] et dans les langues polynésiennes : awa, dawa, fava, kasi, taba, tava[2].
+On le nomme usuellement en français pometier, en Polynésie française kava et dans les langues polynésiennes : awa, dawa, fava, kasi, taba, tava.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pometia pinnata pousse jusqu’à 40 mètres de hauteur. Ses feuilles sont pennées (en forme de plume). Son fruit sphérique, d'un diamètre maximal de 4 cm, est initialement vert, puis devient jaune ou rouge foncé par mûrissement. Chaque fruit contient trois graines, entouré par un arille charnue comestible analogue à celle du litchi. Consommé habituellement frais, il peut aussi être grillé ou bouilli[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pometia pinnata pousse jusqu’à 40 mètres de hauteur. Ses feuilles sont pennées (en forme de plume). Son fruit sphérique, d'un diamètre maximal de 4 cm, est initialement vert, puis devient jaune ou rouge foncé par mûrissement. Chaque fruit contient trois graines, entouré par un arille charnue comestible analogue à celle du litchi. Consommé habituellement frais, il peut aussi être grillé ou bouilli.
 </t>
         </is>
       </c>
